--- a/testing-march28/Raw data.xlsx
+++ b/testing-march28/Raw data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Test #</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>CSV File &lt;testTestcaseTester&gt;.csv</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -382,8 +391,8 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,6 +435,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -434,6 +446,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -441,6 +456,9 @@
       </c>
       <c r="B4">
         <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -448,7 +466,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -456,7 +477,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -464,7 +488,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -472,7 +499,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -480,7 +510,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -488,7 +521,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -498,6 +534,9 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
@@ -506,6 +545,9 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
@@ -514,13 +556,19 @@
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -528,7 +576,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -536,130 +587,160 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
